--- a/AAII_Financials/Quarterly/FLRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLRE_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/FLRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>FLRE</t>
   </si>
@@ -1541,8 +1541,8 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
@@ -1657,8 +1657,8 @@
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -1686,8 +1686,8 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
@@ -1918,8 +1918,8 @@
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>4</v>
@@ -1973,8 +1973,8 @@
       <c r="D57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>500</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -2031,8 +2031,8 @@
       <c r="D59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
-        <v>400</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -2060,8 +2060,8 @@
       <c r="D60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
-        <v>800</v>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
@@ -2234,8 +2234,8 @@
       <c r="D66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
-        <v>800</v>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>4</v>
@@ -2392,8 +2392,8 @@
       <c r="D72" s="3">
         <v>-7300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-7200</v>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
@@ -2508,8 +2508,8 @@
       <c r="D76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
-        <v>-800</v>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>4</v>
